--- a/ReadME.xlsx
+++ b/ReadME.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\REACT\Project\START PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LEARNING\ReactJS2\start-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFE711F-8633-42CA-98FB-228210EFBE0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A6A6AAE-73ED-4435-8D6D-FEB74E93FA41}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,7 +131,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,7 +141,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -154,10 +155,6 @@
   </si>
   <si>
     <t>6. Routing</t>
-  </si>
-  <si>
-    <t>npm i react-router-dom</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>đầu tiên xem index.js</t>
@@ -218,7 +215,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -228,7 +225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -288,7 +285,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -305,7 +302,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -333,7 +330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -343,7 +340,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +350,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -363,7 +360,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,22 +376,25 @@
     <t>Khác biệt là có xuất hiện, history, location, match</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>npm i react-router-dom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -420,7 +420,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,7 +428,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -436,14 +436,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="游ゴシック"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1346,11 +1339,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:AK123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="V46" sqref="V46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="X44" sqref="X44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="4" spans="3:11">
       <c r="C4" s="1"/>
@@ -1665,7 +1658,7 @@
     <row r="31" spans="3:19">
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1705,7 +1698,7 @@
     <row r="33" spans="3:19">
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1803,7 +1796,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1813,7 +1806,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
@@ -1826,7 +1819,7 @@
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1836,7 +1829,7 @@
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
@@ -1849,7 +1842,7 @@
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1859,7 +1852,7 @@
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="7"/>
@@ -1880,7 +1873,7 @@
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="7"/>
@@ -1893,7 +1886,7 @@
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1903,7 +1896,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7"/>
@@ -1916,7 +1909,7 @@
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1926,7 +1919,7 @@
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
@@ -1939,7 +1932,7 @@
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1949,7 +1942,7 @@
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
       <c r="M44" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
@@ -1962,7 +1955,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -1972,7 +1965,7 @@
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
       <c r="M45" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
@@ -1985,7 +1978,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -1995,7 +1988,7 @@
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -2008,7 +2001,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -2018,7 +2011,7 @@
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -2031,7 +2024,7 @@
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2041,7 +2034,7 @@
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -2054,7 +2047,7 @@
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -2064,7 +2057,7 @@
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="7"/>
@@ -2077,7 +2070,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2087,7 +2080,7 @@
       <c r="K50" s="7"/>
       <c r="L50" s="7"/>
       <c r="M50" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -2100,7 +2093,7 @@
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2110,7 +2103,7 @@
       <c r="K51" s="7"/>
       <c r="L51" s="7"/>
       <c r="M51" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -2123,7 +2116,7 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
@@ -2133,7 +2126,7 @@
       <c r="K52" s="7"/>
       <c r="L52" s="7"/>
       <c r="M52" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -2146,7 +2139,7 @@
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
@@ -2156,7 +2149,7 @@
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
       <c r="M53" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N53" s="7"/>
       <c r="O53" s="7"/>
@@ -2165,7 +2158,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U53" s="7"/>
       <c r="V53" s="7"/>
@@ -2182,7 +2175,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
@@ -2192,7 +2185,7 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N54" s="7"/>
       <c r="O54" s="7"/>
@@ -2201,7 +2194,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
@@ -2218,7 +2211,7 @@
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
@@ -2239,7 +2232,7 @@
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -2260,7 +2253,7 @@
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -2281,7 +2274,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
@@ -2302,7 +2295,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
@@ -2342,7 +2335,7 @@
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
@@ -2365,7 +2358,7 @@
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
@@ -2401,7 +2394,7 @@
     </row>
     <row r="65" spans="2:27">
       <c r="C65" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="2:27">
@@ -3041,7 +3034,7 @@
       <c r="AG87" s="12"/>
       <c r="AH87" s="12"/>
     </row>
-    <row r="88" spans="2:37" ht="19.5" thickBot="1">
+    <row r="88" spans="2:37" ht="15.75" thickBot="1">
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -3105,7 +3098,7 @@
       <c r="AA89" s="11"/>
       <c r="AB89" s="12"/>
       <c r="AC89" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD89" s="14"/>
       <c r="AE89" s="14"/>
@@ -3116,7 +3109,7 @@
       <c r="AJ89" s="16"/>
       <c r="AK89" s="17"/>
     </row>
-    <row r="90" spans="2:37" ht="19.5" thickBot="1">
+    <row r="90" spans="2:37" ht="15.75" thickBot="1">
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
